--- a/biology/Botanique/Oncosperma/Oncosperma.xlsx
+++ b/biology/Botanique/Oncosperma/Oncosperma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oncosperma est un genre de plantes de la famille des Arecaceae (palmiers) qui contient des espèces natives des régions du Sri Lanka jusqu'aux Philippines.
 </t>
@@ -511,11 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
-Sous-tribu des Oncospermatinae[1],[2].
+Sous-tribu des Oncospermatinae,.
 Le genre Oncosperma partage sa sous-tribu avec trois autres genres : Deckenia, Acanthophoenix et  Tectiphiala.
 </t>
         </is>
@@ -545,11 +559,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Carl Ludwig Blume et  publié  dans le Bulletin des Sciences Physiques et Naturelles en Neerlande 1: 64. en 1838.
-Étymologie
-Oncosperma: nom générique qui vient des  mots grecs: onkos = « vrac, masse, tumeur » et sperma = « graine », probablement  en référence à la large rainure remplie de matière spongieuse à la base de la graine [3].
 </t>
         </is>
       </c>
@@ -575,10 +589,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oncosperma: nom générique qui vient des  mots grecs: onkos = « vrac, masse, tumeur » et sperma = « graine », probablement  en référence à la large rainure remplie de matière spongieuse à la base de la graine .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Oncosperma</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncosperma</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Oncosperma fasciculatum Thwaites
 Oncosperma gracilipes Becc.
